--- a/NEW HR/DONE/RODRIGUEZ, RAYMUNDO.xlsx
+++ b/NEW HR/DONE/RODRIGUEZ, RAYMUNDO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -643,6 +643,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -655,20 +664,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,7 +1365,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1408,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1532,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1598,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1661,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1759,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1818,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1883,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1926,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2001,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2187,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2253,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2311,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2377,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2433,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2508,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2551,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2617,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2673,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2771,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2834,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,8 +3312,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="3510" topLeftCell="A67" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3343,14 +3343,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3361,14 +3361,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3381,14 +3381,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3414,18 +3414,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3472,7 +3472,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>48.75</v>
+        <v>51.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3482,7 +3482,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>77.75</v>
+        <v>80.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5038,15 +5038,19 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45017</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -5054,15 +5058,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45047</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5935,17 +5943,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6014,14 +6022,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6035,17 +6043,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6059,17 +6067,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6095,18 +6103,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DONE/RODRIGUEZ, RAYMUNDO.xlsx
+++ b/NEW HR/DONE/RODRIGUEZ, RAYMUNDO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -643,15 +643,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -664,11 +655,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,7 +1365,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1408,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1532,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1598,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1661,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1759,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1818,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1883,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1926,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2001,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2187,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2253,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2311,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2377,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2433,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2508,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2551,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2617,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2673,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2771,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2834,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="3510" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
@@ -3343,14 +3343,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3361,14 +3361,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3381,14 +3381,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3414,18 +3414,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5943,17 +5943,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5988,7 +5988,7 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="3510" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
@@ -6022,14 +6022,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6043,17 +6043,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6067,17 +6067,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6103,18 +6103,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6171,7 +6171,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>215.083</v>
+        <v>214.083</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6479,8 +6479,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -6489,10 +6493,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>1</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="49">
+        <v>45082</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>

--- a/NEW HR/DONE/RODRIGUEZ, RAYMUNDO.xlsx
+++ b/NEW HR/DONE/RODRIGUEZ, RAYMUNDO.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -643,6 +643,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -655,20 +664,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,7 +1365,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1408,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1532,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1598,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1661,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1759,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1818,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1883,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1926,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2001,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2187,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2253,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2311,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2377,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2433,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2508,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2551,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2617,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2673,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2771,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2834,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,14 +3343,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3361,14 +3361,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3381,14 +3381,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3414,18 +3414,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5943,17 +5943,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5989,9 +5989,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A6" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6022,14 +6022,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6043,17 +6043,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6067,17 +6067,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6103,18 +6103,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6504,7 +6504,9 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -6516,7 +6518,9 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="49">
+        <v>45096</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>

--- a/NEW HR/DONE/RODRIGUEZ, RAYMUNDO.xlsx
+++ b/NEW HR/DONE/RODRIGUEZ, RAYMUNDO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2216D4-D962-4205-ABD5-04F6FA676481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -257,11 +258,23 @@
   <si>
     <t>3/18,20/2023</t>
   </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>7/21,22/2023</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>8/3-5/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1365,7 +1378,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1421,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1485,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1545,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1611,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1674,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1772,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1831,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1896,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1939,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2014,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2200,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2266,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2324,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2390,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2446,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2521,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2564,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2630,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2686,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2784,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2847,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2883,7 +2896,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2900,25 +2913,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2930,25 +2943,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2960,13 +2973,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2975,14 +2988,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3286,7 +3299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3296,7 +3309,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3304,34 +3317,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3516" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3352,7 +3365,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3370,7 +3383,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3390,7 +3403,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3398,7 +3411,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3411,7 +3424,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3428,7 +3441,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +3476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3472,7 +3485,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>56.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3482,12 +3495,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>80.25</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3509,7 +3522,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3529,7 +3542,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3549,7 +3562,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3573,7 +3586,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>53</v>
@@ -3595,7 +3608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -3621,7 +3634,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -3641,7 +3654,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -3661,7 +3674,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -3681,7 +3694,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -3701,7 +3714,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -3721,7 +3734,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3741,7 +3754,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -3761,7 +3774,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -3781,7 +3794,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>43</v>
       </c>
@@ -3799,7 +3812,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3823,7 +3836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>58</v>
@@ -3845,7 +3858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43497</v>
       </c>
@@ -3871,7 +3884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43525</v>
       </c>
@@ -3895,7 +3908,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43556</v>
       </c>
@@ -3915,7 +3928,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43586</v>
       </c>
@@ -3935,7 +3948,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43617</v>
       </c>
@@ -3955,7 +3968,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43647</v>
       </c>
@@ -3975,7 +3988,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43678</v>
       </c>
@@ -3995,7 +4008,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43709</v>
       </c>
@@ -4015,7 +4028,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43739</v>
       </c>
@@ -4039,31 +4052,29 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="13"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="40">
+        <v>43770</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D36" s="39"/>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H36" s="39">
-        <v>1</v>
-      </c>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="49">
-        <v>43762</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -4081,55 +4092,51 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
-        <v>43800</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="39">
-        <v>3</v>
-      </c>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>44</v>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="40">
+        <v>43831</v>
       </c>
       <c r="B39" s="20"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B40" s="20"/>
+        <v>43862</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
@@ -4143,19 +4150,23 @@
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="49">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="13">
         <v>1.25</v>
       </c>
-      <c r="D41" s="39"/>
+      <c r="D41" s="39">
+        <v>3</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
@@ -4165,23 +4176,19 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="49">
-        <v>43889</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>43891</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>43922</v>
+      </c>
+      <c r="B42" s="20"/>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
-      <c r="D42" s="39">
-        <v>3</v>
-      </c>
+      <c r="D42" s="39"/>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
@@ -4191,13 +4198,11 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -4215,9 +4220,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -4235,9 +4240,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -4255,9 +4260,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -4275,11 +4280,13 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>44044</v>
-      </c>
-      <c r="B47" s="20"/>
+        <v>44075</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
@@ -4293,15 +4300,15 @@
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="49">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>44075</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>44105</v>
+      </c>
+      <c r="B48" s="20"/>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
@@ -4315,23 +4322,17 @@
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="49">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>44105</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>59</v>
-      </c>
+        <v>44136</v>
+      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
-      <c r="D49" s="39">
-        <v>3</v>
-      </c>
+      <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -4341,19 +4342,21 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B50" s="20"/>
+        <v>44166</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
-      <c r="D50" s="39"/>
+      <c r="D50" s="39">
+        <v>2</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
@@ -4365,57 +4368,59 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
-        <v>44166</v>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="B51" s="20"/>
-      <c r="C51" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C51" s="13"/>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G51" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="39"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="39">
+        <v>2</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>44197</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>53</v>
-      </c>
+        <v>44228</v>
+      </c>
+      <c r="B53" s="20"/>
       <c r="C53" s="13">
         <v>1.25</v>
       </c>
-      <c r="D53" s="39">
-        <v>2</v>
-      </c>
+      <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13">
@@ -4425,15 +4430,15 @@
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>44228</v>
-      </c>
-      <c r="B54" s="20"/>
+        <v>44256</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
@@ -4447,15 +4452,15 @@
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>44256</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>62</v>
-      </c>
+        <v>44287</v>
+      </c>
+      <c r="B55" s="20"/>
       <c r="C55" s="13">
         <v>1.25</v>
       </c>
@@ -4469,13 +4474,11 @@
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4493,9 +4496,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4513,9 +4516,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4533,9 +4536,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -4553,9 +4556,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4573,9 +4576,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4593,9 +4596,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -4613,15 +4616,19 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>44501</v>
-      </c>
-      <c r="B63" s="20"/>
+        <v>44531</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
-      <c r="D63" s="39"/>
+      <c r="D63" s="39">
+        <v>3</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
@@ -4633,57 +4640,57 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D64" s="39">
-        <v>3</v>
-      </c>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="48" t="s">
-        <v>46</v>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="40">
+        <v>44562</v>
       </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>44562</v>
-      </c>
-      <c r="B66" s="20"/>
+        <v>44593</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39"/>
+      <c r="D66" s="39">
+        <v>2</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -4693,21 +4700,21 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="39">
-        <v>2</v>
-      </c>
+      <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -4717,17 +4724,15 @@
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="49">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>44621</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>44652</v>
+      </c>
+      <c r="B68" s="20"/>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
@@ -4741,13 +4746,11 @@
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="49">
-        <v>44635</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4765,9 +4768,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -4785,9 +4788,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4805,11 +4808,13 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B72" s="20"/>
+        <v>44774</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
@@ -4823,53 +4828,51 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
-        <v>44774</v>
-      </c>
+      <c r="K72" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="13">
-        <v>1.25</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C73" s="13"/>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="13"/>
+      <c r="K73" s="20"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13">
@@ -4887,9 +4890,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4907,15 +4910,19 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B77" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
-      <c r="D77" s="39"/>
+      <c r="D77" s="39">
+        <v>2</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
@@ -4925,35 +4932,31 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>44896</v>
-      </c>
+      <c r="K77" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C78" s="13"/>
       <c r="D78" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="20"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>47</v>
       </c>
@@ -4971,7 +4974,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44927</v>
       </c>
@@ -4991,7 +4994,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44958</v>
       </c>
@@ -5011,7 +5014,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44986</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -5057,7 +5060,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -5077,39 +5080,47 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45078</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45108</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5125,7 +5136,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5141,7 +5152,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5157,7 +5168,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5173,7 +5184,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5189,7 +5200,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5205,7 +5216,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5221,7 +5232,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5237,7 +5248,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5253,7 +5264,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5269,7 +5280,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5285,7 +5296,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5301,7 +5312,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5317,7 +5328,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5333,7 +5344,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5349,7 +5360,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5365,7 +5376,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5381,7 +5392,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5397,7 +5408,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5413,7 +5424,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5429,7 +5440,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5445,7 +5456,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5461,7 +5472,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5477,7 +5488,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5493,7 +5504,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5509,7 +5520,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5525,7 +5536,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5541,7 +5552,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5557,7 +5568,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5573,7 +5584,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5589,7 +5600,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5605,7 +5616,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5621,7 +5632,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5637,7 +5648,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5653,7 +5664,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5669,7 +5680,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5685,7 +5696,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5701,7 +5712,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5717,7 +5728,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5733,7 +5744,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5749,7 +5760,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5765,7 +5776,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5781,7 +5792,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5797,7 +5808,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5813,7 +5824,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5829,7 +5840,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5845,7 +5856,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5861,7 +5872,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5877,7 +5888,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5893,7 +5904,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5909,7 +5920,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5925,7 +5936,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
       <c r="B138" s="15"/>
       <c r="C138" s="42"/>
@@ -5956,10 +5967,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5982,34 +5993,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="3516" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6031,7 +6042,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6055,7 +6066,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6079,7 +6090,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6087,7 +6098,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6100,7 +6111,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -6117,7 +6128,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6152,7 +6163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6161,7 +6172,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>153.203</v>
+        <v>147.203</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6171,12 +6182,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>214.083</v>
+        <v>212.083</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6198,7 +6209,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43374</v>
       </c>
@@ -6220,7 +6231,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43405</v>
       </c>
@@ -6244,7 +6255,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>56</v>
@@ -6266,7 +6277,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
@@ -6284,7 +6295,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43525</v>
       </c>
@@ -6306,7 +6317,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43739</v>
       </c>
@@ -6330,7 +6341,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43800</v>
       </c>
@@ -6354,7 +6365,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -6372,7 +6383,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44105</v>
       </c>
@@ -6396,13 +6407,15 @@
         <v>44130</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="20"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="39">
+        <v>3</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13" t="str">
@@ -6412,15 +6425,15 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
-        <v>44562</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="K20" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="20"/>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
@@ -6429,20 +6442,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H21" s="39">
-        <v>1</v>
-      </c>
+      <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="49">
-        <v>44590</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
@@ -6451,18 +6462,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="39">
+        <v>1</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="K22" s="49">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -6474,16 +6487,14 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="49">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -6493,19 +6504,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39">
-        <v>1</v>
-      </c>
+      <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
       <c r="K24" s="49">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="40">
+        <v>45078</v>
+      </c>
       <c r="B25" s="20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
@@ -6515,16 +6526,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39">
+        <v>1</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="49">
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -6536,11 +6551,17 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
+      <c r="K26" s="49">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
@@ -6549,16 +6570,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="39">
+        <v>2</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="20"/>
+      <c r="K27" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="40">
+        <v>45134</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="39"/>
+      <c r="D28" s="39">
+        <v>3</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
       <c r="G28" s="13" t="str">
@@ -6568,9 +6599,11 @@
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6586,7 +6619,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6602,7 +6635,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6618,7 +6651,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6634,7 +6667,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6650,7 +6683,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6666,7 +6699,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6682,7 +6715,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6698,7 +6731,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6714,7 +6747,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6730,7 +6763,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6746,7 +6779,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6762,7 +6795,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6778,7 +6811,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6794,7 +6827,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6810,7 +6843,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6826,7 +6859,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6842,7 +6875,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6858,7 +6891,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6874,7 +6907,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6890,7 +6923,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6906,7 +6939,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6922,7 +6955,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6938,7 +6971,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6954,7 +6987,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6970,7 +7003,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6986,7 +7019,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7002,7 +7035,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7018,7 +7051,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7034,7 +7067,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7050,7 +7083,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7066,7 +7099,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7082,7 +7115,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7098,7 +7131,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7114,7 +7147,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7130,7 +7163,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7146,7 +7179,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7162,7 +7195,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7178,7 +7211,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7194,7 +7227,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7210,7 +7243,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7226,7 +7259,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7242,7 +7275,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7258,7 +7291,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7274,7 +7307,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7290,7 +7323,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7306,7 +7339,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7322,7 +7355,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7338,7 +7371,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7354,7 +7387,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7370,7 +7403,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7386,7 +7419,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7402,7 +7435,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7418,7 +7451,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7434,7 +7467,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7450,7 +7483,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7466,7 +7499,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7482,7 +7515,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7498,7 +7531,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7514,7 +7547,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7530,7 +7563,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7546,7 +7579,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7562,7 +7595,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7578,7 +7611,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7594,7 +7627,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7610,7 +7643,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7626,7 +7659,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7642,7 +7675,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7658,7 +7691,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7674,7 +7707,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7690,7 +7723,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7706,7 +7739,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7722,7 +7755,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7738,7 +7771,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7754,7 +7787,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7770,7 +7803,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7786,7 +7819,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7802,7 +7835,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7818,7 +7851,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7834,7 +7867,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7850,7 +7883,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7866,7 +7899,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7882,7 +7915,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7898,7 +7931,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7914,7 +7947,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7930,7 +7963,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7946,7 +7979,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7962,7 +7995,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7978,7 +8011,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7994,7 +8027,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8010,7 +8043,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8026,7 +8059,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8042,7 +8075,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8058,7 +8091,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8074,7 +8107,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8090,7 +8123,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8106,7 +8139,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8122,7 +8155,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8138,7 +8171,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8154,7 +8187,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8170,7 +8203,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8186,21 +8219,37 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8217,10 +8266,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8243,7 +8292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8251,21 +8300,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8278,7 +8327,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8307,7 +8356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>160.203</v>
       </c>
@@ -8331,17 +8380,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8362,7 +8411,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8389,7 +8438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8415,7 +8464,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8441,7 +8490,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8467,7 +8516,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8493,7 +8542,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8519,7 +8568,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8545,7 +8594,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8571,7 +8620,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8591,7 +8640,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8611,7 +8660,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8631,7 +8680,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8652,7 +8701,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8673,7 +8722,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8694,7 +8743,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8715,7 +8764,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8736,7 +8785,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8757,7 +8806,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8778,7 +8827,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8799,7 +8848,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8820,7 +8869,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8841,7 +8890,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8862,7 +8911,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8883,7 +8932,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8904,7 +8953,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8925,7 +8974,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8946,7 +8995,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8967,7 +9016,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8988,7 +9037,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9009,7 +9058,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9030,7 +9079,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9051,7 +9100,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9060,7 +9109,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9069,7 +9118,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9078,7 +9127,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9087,7 +9136,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9096,7 +9145,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9105,7 +9154,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9114,7 +9163,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9123,7 +9172,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9132,7 +9181,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9141,7 +9190,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9150,7 +9199,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9159,7 +9208,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9168,7 +9217,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9177,7 +9226,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9186,7 +9235,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9195,7 +9244,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9204,7 +9253,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9213,7 +9262,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9222,7 +9271,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9231,7 +9280,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9240,7 +9289,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9249,7 +9298,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9258,7 +9307,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9267,7 +9316,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9276,7 +9325,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9285,7 +9334,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9294,7 +9343,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9303,7 +9352,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9312,7 +9361,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/RODRIGUEZ, RAYMUNDO.xlsx
+++ b/NEW HR/DONE/RODRIGUEZ, RAYMUNDO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2216D4-D962-4205-ABD5-04F6FA676481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -274,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -656,15 +655,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -677,11 +667,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1378,7 +1377,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1420,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1484,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,7 +1544,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1610,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1673,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1771,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1830,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1895,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1938,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2013,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2199,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2265,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2323,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2389,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,7 +2445,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2520,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2563,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2629,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2685,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2783,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2846,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,7 +2895,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2913,25 +2912,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2943,25 +2942,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2973,13 +2972,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2988,14 +2987,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3299,7 +3298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3309,7 +3308,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3317,34 +3316,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3516" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3356,16 +3355,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3374,16 +3373,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3394,16 +3393,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3411,7 +3410,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3424,24 +3423,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3476,7 +3475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3485,7 +3484,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.75</v>
+        <v>58</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3495,12 +3494,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3522,7 +3521,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3542,7 +3541,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3562,7 +3561,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>53</v>
@@ -3608,7 +3607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -3654,7 +3653,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -3674,7 +3673,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -3694,7 +3693,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -3714,7 +3713,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -3734,7 +3733,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3754,7 +3753,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -3774,7 +3773,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -3794,7 +3793,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>43</v>
       </c>
@@ -3812,7 +3811,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3836,7 +3835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>58</v>
@@ -3858,7 +3857,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43497</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43525</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43556</v>
       </c>
@@ -3928,7 +3927,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43586</v>
       </c>
@@ -3948,7 +3947,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43617</v>
       </c>
@@ -3968,7 +3967,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43647</v>
       </c>
@@ -3988,7 +3987,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43678</v>
       </c>
@@ -4008,7 +4007,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43709</v>
       </c>
@@ -4028,7 +4027,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43739</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43770</v>
       </c>
@@ -4072,7 +4071,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -4092,7 +4091,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>44</v>
       </c>
@@ -4110,7 +4109,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43831</v>
       </c>
@@ -4130,7 +4129,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43862</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43891</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43922</v>
       </c>
@@ -4200,7 +4199,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43952</v>
       </c>
@@ -4220,7 +4219,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43983</v>
       </c>
@@ -4240,7 +4239,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44013</v>
       </c>
@@ -4260,7 +4259,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44044</v>
       </c>
@@ -4280,7 +4279,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44075</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44105</v>
       </c>
@@ -4324,7 +4323,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44136</v>
       </c>
@@ -4344,7 +4343,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44166</v>
       </c>
@@ -4368,7 +4367,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>45</v>
       </c>
@@ -4386,7 +4385,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44197</v>
       </c>
@@ -4412,7 +4411,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44228</v>
       </c>
@@ -4432,7 +4431,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44256</v>
       </c>
@@ -4456,7 +4455,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44287</v>
       </c>
@@ -4476,7 +4475,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44317</v>
       </c>
@@ -4496,7 +4495,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44348</v>
       </c>
@@ -4516,7 +4515,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44378</v>
       </c>
@@ -4536,7 +4535,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44409</v>
       </c>
@@ -4556,7 +4555,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44440</v>
       </c>
@@ -4576,7 +4575,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44470</v>
       </c>
@@ -4596,7 +4595,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44501</v>
       </c>
@@ -4616,7 +4615,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44531</v>
       </c>
@@ -4640,7 +4639,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>46</v>
       </c>
@@ -4658,7 +4657,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44562</v>
       </c>
@@ -4678,7 +4677,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44593</v>
       </c>
@@ -4704,7 +4703,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44621</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>44635</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44652</v>
       </c>
@@ -4748,7 +4747,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44682</v>
       </c>
@@ -4768,7 +4767,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44713</v>
       </c>
@@ -4788,7 +4787,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44743</v>
       </c>
@@ -4808,7 +4807,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44774</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>62</v>
@@ -4850,7 +4849,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44805</v>
       </c>
@@ -4870,7 +4869,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44835</v>
       </c>
@@ -4890,7 +4889,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44866</v>
       </c>
@@ -4910,7 +4909,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>75</v>
@@ -4956,7 +4955,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>47</v>
       </c>
@@ -4974,7 +4973,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44927</v>
       </c>
@@ -4994,7 +4993,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44958</v>
       </c>
@@ -5014,7 +5013,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44986</v>
       </c>
@@ -5040,7 +5039,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -5060,7 +5059,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -5080,7 +5079,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45078</v>
       </c>
@@ -5100,7 +5099,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45108</v>
       </c>
@@ -5120,24 +5119,30 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="40">
+        <v>45139</v>
+      </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="40">
+        <v>45170</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5152,7 +5157,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5168,7 +5173,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5184,7 +5189,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5200,7 +5205,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5216,7 +5221,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5232,7 +5237,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5248,7 +5253,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5264,7 +5269,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5280,7 +5285,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5296,7 +5301,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5312,7 +5317,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5328,7 +5333,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5344,7 +5349,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5360,7 +5365,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5376,7 +5381,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5392,7 +5397,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5408,7 +5413,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5424,7 +5429,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5440,7 +5445,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5456,7 +5461,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5472,7 +5477,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5488,7 +5493,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5504,7 +5509,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5520,7 +5525,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5536,7 +5541,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5552,7 +5557,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5568,7 +5573,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5584,7 +5589,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5600,7 +5605,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5616,7 +5621,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5632,7 +5637,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5648,7 +5653,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5664,7 +5669,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5680,7 +5685,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5696,7 +5701,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5712,7 +5717,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5728,7 +5733,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5744,7 +5749,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5760,7 +5765,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5776,7 +5781,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5792,7 +5797,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5808,7 +5813,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5824,7 +5829,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5840,7 +5845,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5856,7 +5861,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5872,7 +5877,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5888,7 +5893,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5904,7 +5909,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5920,7 +5925,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5936,7 +5941,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41"/>
       <c r="B138" s="15"/>
       <c r="C138" s="42"/>
@@ -5954,23 +5959,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5993,34 +5998,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3516" topLeftCell="A16" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6033,16 +6038,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6054,19 +6059,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6078,19 +6083,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6098,7 +6103,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6111,24 +6116,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6163,7 +6168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6182,12 +6187,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>212.083</v>
+        <v>211.083</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6209,7 +6214,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43374</v>
       </c>
@@ -6231,7 +6236,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43405</v>
       </c>
@@ -6255,7 +6260,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>56</v>
@@ -6277,7 +6282,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
@@ -6295,7 +6300,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43525</v>
       </c>
@@ -6317,7 +6322,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43739</v>
       </c>
@@ -6341,7 +6346,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43800</v>
       </c>
@@ -6365,7 +6370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -6383,7 +6388,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44105</v>
       </c>
@@ -6407,7 +6412,7 @@
         <v>44130</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>59</v>
@@ -6429,7 +6434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>46</v>
       </c>
@@ -6447,7 +6452,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44562</v>
       </c>
@@ -6471,7 +6476,7 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -6489,7 +6494,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44986</v>
       </c>
@@ -6511,7 +6516,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>45078</v>
       </c>
@@ -6535,7 +6540,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -6555,7 +6560,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>45108</v>
       </c>
@@ -6579,7 +6584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>45134</v>
       </c>
@@ -6603,9 +6608,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="20"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
@@ -6614,12 +6623,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="39">
+        <v>1</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="49">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6635,7 +6648,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6651,7 +6664,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6667,7 +6680,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6683,7 +6696,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6699,7 +6712,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6715,7 +6728,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6731,7 +6744,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6747,7 +6760,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6763,7 +6776,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6779,7 +6792,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6795,7 +6808,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6811,7 +6824,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6827,7 +6840,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6843,7 +6856,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6859,7 +6872,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6875,7 +6888,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6891,7 +6904,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6907,7 +6920,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6923,7 +6936,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6939,7 +6952,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6955,7 +6968,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6971,7 +6984,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6987,7 +7000,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7003,7 +7016,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7019,7 +7032,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7035,7 +7048,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7051,7 +7064,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7067,7 +7080,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7083,7 +7096,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7099,7 +7112,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7115,7 +7128,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7131,7 +7144,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7147,7 +7160,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7163,7 +7176,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7179,7 +7192,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7195,7 +7208,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7211,7 +7224,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7227,7 +7240,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7243,7 +7256,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7259,7 +7272,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7275,7 +7288,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7291,7 +7304,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7307,7 +7320,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7323,7 +7336,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7339,7 +7352,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7355,7 +7368,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7371,7 +7384,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7387,7 +7400,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7403,7 +7416,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7419,7 +7432,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7435,7 +7448,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7451,7 +7464,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7467,7 +7480,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7483,7 +7496,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7499,7 +7512,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7515,7 +7528,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7531,7 +7544,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7547,7 +7560,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7563,7 +7576,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7579,7 +7592,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7595,7 +7608,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7611,7 +7624,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7627,7 +7640,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7643,7 +7656,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7659,7 +7672,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7675,7 +7688,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7691,7 +7704,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7707,7 +7720,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7723,7 +7736,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7739,7 +7752,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7755,7 +7768,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7771,7 +7784,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7787,7 +7800,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7803,7 +7816,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7819,7 +7832,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7835,7 +7848,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7851,7 +7864,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7867,7 +7880,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7883,7 +7896,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7899,7 +7912,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7915,7 +7928,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7931,7 +7944,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7947,7 +7960,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7963,7 +7976,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7979,7 +7992,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7995,7 +8008,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8011,7 +8024,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8027,7 +8040,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8043,7 +8056,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8059,7 +8072,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8075,7 +8088,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8091,7 +8104,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8107,7 +8120,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8123,7 +8136,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8139,7 +8152,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8155,7 +8168,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8171,7 +8184,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8187,7 +8200,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8203,7 +8216,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8219,7 +8232,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8235,7 +8248,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -8266,10 +8279,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8292,7 +8305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8300,21 +8313,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8327,7 +8340,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8356,7 +8369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>160.203</v>
       </c>
@@ -8380,17 +8393,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8411,7 +8424,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8438,7 +8451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8464,7 +8477,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8490,7 +8503,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8516,7 +8529,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8542,7 +8555,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8568,7 +8581,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8594,7 +8607,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8620,7 +8633,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8640,7 +8653,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8660,7 +8673,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8680,7 +8693,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8701,7 +8714,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8722,7 +8735,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8743,7 +8756,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8764,7 +8777,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8785,7 +8798,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8806,7 +8819,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8827,7 +8840,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8848,7 +8861,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8869,7 +8882,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8890,7 +8903,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8911,7 +8924,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8932,7 +8945,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8953,7 +8966,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8974,7 +8987,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8995,7 +9008,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9016,7 +9029,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9037,7 +9050,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9058,7 +9071,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9079,7 +9092,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9100,7 +9113,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9109,7 +9122,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9118,7 +9131,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9127,7 +9140,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9136,7 +9149,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9145,7 +9158,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9154,7 +9167,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9163,7 +9176,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9172,7 +9185,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9181,7 +9194,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9190,7 +9203,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9199,7 +9212,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9208,7 +9221,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9217,7 +9230,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9226,7 +9239,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9235,7 +9248,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9244,7 +9257,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9253,7 +9266,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9262,7 +9275,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9271,7 +9284,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9280,7 +9293,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9289,7 +9302,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9298,7 +9311,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9307,7 +9320,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9316,7 +9329,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9325,7 +9338,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9334,7 +9347,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9343,7 +9356,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9352,7 +9365,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9361,7 +9374,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
